--- a/semaine 9/Feuille_de_temps_S1-Eq1.xlsx
+++ b/semaine 9/Feuille_de_temps_S1-Eq1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_web\CoolKidsClub-Gym\semaine 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623AE24B-58D4-4630-BD81-4A04E440E384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F3995-598C-406B-9A80-6AB76AACDABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>Temps</t>
   </si>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>UI general du site</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Apprendre Jest</t>
+  </si>
+  <si>
+    <t>trouver language</t>
+  </si>
+  <si>
+    <t>Fix barre de navigation (choses affichent correctement, logo ne se traduit pas)</t>
+  </si>
+  <si>
+    <t>Creation test unitaire</t>
+  </si>
+  <si>
+    <t>Tester connection</t>
+  </si>
+  <si>
+    <t>Tester creation compte</t>
+  </si>
+  <si>
+    <t>Tester ajouter article</t>
   </si>
 </sst>
 </file>
@@ -1391,15 +1415,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1448,8 +1472,14 @@
       <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>12</v>
       </c>
@@ -1483,8 +1513,14 @@
       <c r="P2" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q2" s="13">
+        <v>3</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1518,8 +1554,14 @@
       <c r="P3" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>3.5</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="2">
         <v>0.5</v>
@@ -1548,8 +1590,14 @@
       <c r="P4" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="2">
         <v>0.5</v>
@@ -1578,8 +1626,14 @@
       <c r="P5" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
       <c r="C6" s="2">
         <v>1</v>
@@ -1596,183 +1650,155 @@
       <c r="P6" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="D7" s="12"/>
       <c r="F7" s="12"/>
       <c r="H7" s="12"/>
       <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="D8" s="12"/>
       <c r="F8" s="12"/>
       <c r="H8" s="12"/>
       <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="D9" s="12"/>
       <c r="F9" s="12"/>
       <c r="H9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
       <c r="D10" s="12"/>
       <c r="F10" s="12"/>
       <c r="H10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
       <c r="D11" s="12"/>
       <c r="F11" s="12"/>
       <c r="H11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
       <c r="D12" s="12"/>
       <c r="F12" s="12"/>
       <c r="H12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
       <c r="D13" s="12"/>
       <c r="F13" s="12"/>
       <c r="H13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="F14" s="12"/>
       <c r="H14" s="12"/>
       <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
       <c r="H28" s="12"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="D29" s="12"/>
       <c r="F29" s="12"/>
       <c r="H29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="D30" s="12"/>
       <c r="F30" s="12"/>
       <c r="H30" s="12"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
       <c r="H31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
       <c r="D32" s="12"/>
       <c r="F32" s="12"/>

--- a/semaine 9/Feuille_de_temps_S1-Eq1.xlsx
+++ b/semaine 9/Feuille_de_temps_S1-Eq1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_web\CoolKidsClub-Gym\semaine 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2281126\Documents\GitHub\CoolKidsClub-Gym\semaine 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F3995-598C-406B-9A80-6AB76AACDABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF584F6-2566-4389-9016-1F293E73A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="326" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>Temps</t>
   </si>
@@ -93,18 +93,6 @@
     <t>Rencontre avec le client</t>
   </si>
   <si>
-    <t>Début modèle donnée</t>
-  </si>
-  <si>
-    <t>Modèle de donnée Relationel</t>
-  </si>
-  <si>
-    <t>Gestion Entretien</t>
-  </si>
-  <si>
-    <t>Rencontre client</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -337,6 +325,54 @@
   </si>
   <si>
     <t>Tester ajouter article</t>
+  </si>
+  <si>
+    <t>delete copie de boutique + correction</t>
+  </si>
+  <si>
+    <t>Création page abonnement</t>
+  </si>
+  <si>
+    <t>Création page accueil</t>
+  </si>
+  <si>
+    <t>Update accueil</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>page abonnement</t>
+  </si>
+  <si>
+    <t>page accueil</t>
+  </si>
+  <si>
+    <t>correction organisation du projet</t>
+  </si>
+  <si>
+    <t>correction styles</t>
+  </si>
+  <si>
+    <t>page localisez-nous et accueil</t>
+  </si>
+  <si>
+    <t>abonnement dans panier</t>
+  </si>
+  <si>
+    <t>update server.js</t>
+  </si>
+  <si>
+    <t>update navbar et confirmation</t>
+  </si>
+  <si>
+    <t>etudier mongo</t>
+  </si>
+  <si>
+    <t>collections mongo</t>
   </si>
 </sst>
 </file>
@@ -496,7 +532,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -801,7 +837,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -828,27 +864,27 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -859,7 +895,7 @@
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -875,36 +911,36 @@
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -918,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -937,7 +973,7 @@
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -947,7 +983,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -957,7 +993,7 @@
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
@@ -986,7 +1022,7 @@
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1013,11 +1049,11 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
@@ -1060,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1080,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1088,7 +1124,7 @@
         <v>1.5</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1096,7 +1132,7 @@
         <v>0.5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1104,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1112,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1120,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1128,7 +1164,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1136,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1151,11 +1187,11 @@
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
@@ -1192,19 +1228,19 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>10</v>
@@ -1215,49 +1251,49 @@
         <v>1.5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>1.5</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M2">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1265,7 +1301,7 @@
         <v>1.5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1273,37 +1309,37 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>3.5</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1313,25 +1349,25 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>2.5</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1341,25 +1377,25 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,19 +1403,19 @@
         <v>2.5</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O6">
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1401,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1417,11 +1453,11 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1455,25 +1491,25 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>10</v>
@@ -1499,25 +1535,25 @@
         <v>3</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M2" s="13">
         <v>2.5</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O2" s="13">
         <v>1</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="13">
         <v>3</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
@@ -1540,25 +1576,25 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
@@ -1576,25 +1612,25 @@
         <v>2</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -1612,25 +1648,25 @@
         <v>1</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M5">
         <v>1.5</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q5">
         <v>1.5</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
@@ -1648,13 +1684,13 @@
         <v>1</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1667,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1680,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8592,17 +8628,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8633,38 +8671,143 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="2">
+        <v>98</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>